--- a/数据整理/stocks/A股/上证主板/603516-淳中科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603516-淳中科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.04</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.41</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.71</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>7.44</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,25 +634,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009986</t>
+          <t>001210</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘创新领航混合A</t>
+          <t>天弘互联网灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.44</t>
+          <t>11.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5465</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -622,25 +672,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009987</t>
+          <t>009986</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘创新领航混合C</t>
+          <t>天弘创新领航混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>81.44</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.02</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4473</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -660,15 +720,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.97</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>7.10</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001210</t>
+          <t>002244</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘互联网灵活配置混合</t>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002244</t>
+          <t>009987</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城低碳科技主题灵活配置混合</t>
+          <t>天弘创新领航混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9.12</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603516-淳中科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603516-淳中科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603516-淳中科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603516-淳中科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603516-淳中科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603516-淳中科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603516-淳中科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603516-淳中科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.23</v>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3453</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1224,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1330,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.21</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
@@ -1213,13 +1346,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603516-淳中科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603516-淳中科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1267,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,17 +1279,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1298,14 +1319,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.42</v>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1314,14 +1357,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="4">
@@ -1330,14 +1463,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5">
@@ -1346,14 +1479,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1.21</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="6">
@@ -1362,13 +1495,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603516-淳中科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603516-淳中科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,17 +1412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1452,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1447,14 +1490,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.42</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
@@ -1463,14 +1596,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="5">
@@ -1479,14 +1612,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="6">
@@ -1495,14 +1628,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1.21</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="7">
@@ -1511,13 +1644,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603516-淳中科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603516-淳中科技.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,129 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>260115</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城中小盘混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0828</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002244</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城低碳科技主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.44</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0670</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -589,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -640,32 +656,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001210</t>
+          <t>010706</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘互联网灵活配置混合</t>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.83</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5465</t>
+          <t>0.0582</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -678,150 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009986</t>
+          <t>260115</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘创新领航混合A</t>
+          <t>景顺长城中小盘混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.44</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4473</t>
+          <t>0.0526</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>260115</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城中小盘混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0951</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002244</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城低碳科技主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.12</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0739</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009987</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>天弘创新领航混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>81.44</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0497</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +758,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -886,36 +788,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>010706</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.17</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0764</t>
+          <t>0.0661</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -924,36 +826,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002244</t>
+          <t>260115</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城低碳科技主题灵活配置混合</t>
+          <t>景顺长城中小盘混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.33</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0591</t>
+          <t>0.0501</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -962,6 +864,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3453</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1124,138 +1158,6 @@
       </c>
       <c r="H4" t="n">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010706</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城景骊成长混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3453</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>260115</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城中小盘混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0723</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +1192,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1320,36 +1222,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010706</t>
+          <t>260115</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城景骊成长混合型证券投资基金</t>
+          <t>景顺长城中小盘混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>91.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0661</t>
+          <t>0.0764</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1358,36 +1260,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>002244</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>8.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0501</t>
+          <t>0.0591</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1401,7 +1303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1422,7 +1324,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1452,32 +1354,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010706</t>
+          <t>001210</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城景骊成长混合型证券投资基金</t>
+          <t>天弘互联网灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>11.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>82.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0582</t>
+          <t>0.5465</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1490,36 +1392,150 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4473</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>260115</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>景顺长城中小盘混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0526</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1533,144 +1549,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.15</v>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603516-淳中科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603516-淳中科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.42</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1.21</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -661,31 +678,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城景骊成长混合型证券投资基金</t>
+          <t>景顺长城景骊成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>92.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0582</t>
+          <t>0.0518</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>92.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0526</t>
+          <t>0.0496</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -798,26 +815,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0661</t>
+          <t>0.0582</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -836,26 +853,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0501</t>
+          <t>0.0526</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -930,26 +947,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3453</t>
+          <t>0.0661</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -968,26 +985,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0723</t>
+          <t>0.0501</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -996,6 +1013,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3453</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1165,7 +1314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1297,7 +1446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1543,7 +1692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
